--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-13.31417917210275</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.025823200622202</v>
+        <v>-8.969212083134579</v>
       </c>
       <c r="F2" t="n">
-        <v>5.864511051872316</v>
+        <v>6.060345717778855</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.88721108930832</v>
+        <v>-15.93015384262918</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.96601970147615</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.309323926356939</v>
+        <v>-9.219995144067841</v>
       </c>
       <c r="F3" t="n">
-        <v>5.775745238605413</v>
+        <v>5.981949008362599</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.42413633779647</v>
+        <v>-15.46724929105427</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.53277343058082</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.367322827945785</v>
+        <v>-9.26101332887097</v>
       </c>
       <c r="F4" t="n">
-        <v>5.906092205697638</v>
+        <v>6.104283486115687</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.64439805745179</v>
+        <v>-14.67011134023294</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.05212305046003</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.31338572359175</v>
+        <v>-10.22875707802283</v>
       </c>
       <c r="F5" t="n">
-        <v>5.98134676243188</v>
+        <v>6.176710105436116</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.67370854016053</v>
+        <v>-13.65252519416262</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.53832103055919</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.9051970889463</v>
+        <v>-10.82406408823612</v>
       </c>
       <c r="F6" t="n">
-        <v>6.193991945187194</v>
+        <v>6.381814121754596</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.90500707111143</v>
+        <v>-12.90131504171006</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.9975580159255</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.72439557005594</v>
+        <v>-11.65775574859155</v>
       </c>
       <c r="F7" t="n">
-        <v>6.510563827900131</v>
+        <v>6.702418433742785</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.58853674346735</v>
+        <v>-11.53610207058623</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.44334718733178</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.5279749338754</v>
+        <v>-12.4619897275531</v>
       </c>
       <c r="F8" t="n">
-        <v>6.78073658934199</v>
+        <v>6.9850026982786</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.8656321497586</v>
+        <v>-10.79218433081652</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.885611267925768</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.24243499225123</v>
+        <v>-13.20603839035124</v>
       </c>
       <c r="F9" t="n">
-        <v>6.846302841973354</v>
+        <v>7.050176181824712</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.663627825859729</v>
+        <v>-9.550680529244158</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.317107704141701</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.28684726684425</v>
+        <v>-14.25165515680569</v>
       </c>
       <c r="F10" t="n">
-        <v>7.004955367809391</v>
+        <v>7.199480803431756</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.038103780687742</v>
+        <v>-8.900058539524581</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.749330991783145</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.19056965510007</v>
+        <v>-15.1444847490972</v>
       </c>
       <c r="F11" t="n">
-        <v>7.227341223878949</v>
+        <v>7.429617302783617</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.242183414030688</v>
+        <v>-8.066707279043033</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.179555891917655</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.44242946822024</v>
+        <v>-16.42425735187592</v>
       </c>
       <c r="F12" t="n">
-        <v>7.164341062604564</v>
+        <v>7.358316621507577</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.806157360189843</v>
+        <v>-7.627329595674706</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.601430032863312</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.40688704935883</v>
+        <v>-17.41056598645735</v>
       </c>
       <c r="F13" t="n">
-        <v>7.059445532236654</v>
+        <v>7.263502164327797</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.531127354393703</v>
+        <v>-7.389861406731479</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.028291088713802</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.77153705146046</v>
+        <v>-18.79979024099291</v>
       </c>
       <c r="F14" t="n">
-        <v>7.068950544099748</v>
+        <v>7.250095646217869</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.615464785946224</v>
+        <v>-6.450829077711519</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.455302160180614</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84823494486117</v>
+        <v>-19.89538032739423</v>
       </c>
       <c r="F15" t="n">
-        <v>7.049416828259892</v>
+        <v>7.245408601800531</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.152730434308258</v>
+        <v>-5.985895219196142</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.884343081865254</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.81697370902901</v>
+        <v>-20.85740274020426</v>
       </c>
       <c r="F16" t="n">
-        <v>6.950910341678745</v>
+        <v>7.142005593956579</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.543728875322528</v>
+        <v>-5.3758855528916</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.322708252049808</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.88639228204972</v>
+        <v>-21.95266551903454</v>
       </c>
       <c r="F17" t="n">
-        <v>7.261485949690171</v>
+        <v>7.463866767017572</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.619703508713064</v>
+        <v>-5.480453775688466</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.76463531985625</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.74307402619522</v>
+        <v>-22.82131362797738</v>
       </c>
       <c r="F18" t="n">
-        <v>7.642236300933249</v>
+        <v>7.862867788422016</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.080418462359526</v>
+        <v>-4.926871934631762</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.216266728860484</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.36364918089304</v>
+        <v>-23.44082830614501</v>
       </c>
       <c r="F19" t="n">
-        <v>7.953021385790142</v>
+        <v>8.168180290691067</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.216431213228339</v>
+        <v>-4.068396544996943</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.682517107852509</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.25247252851498</v>
+        <v>-24.35038986146825</v>
       </c>
       <c r="F20" t="n">
-        <v>8.16296955416006</v>
+        <v>8.390566146760627</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.771659501089221</v>
+        <v>-3.641508918539623</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.164310818368946</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39681516734501</v>
+        <v>-24.44879160962666</v>
       </c>
       <c r="F21" t="n">
-        <v>8.020499114636397</v>
+        <v>8.228378699157325</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.727080209913144</v>
+        <v>-3.619893526547933</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.679659762848983</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.07333373208552</v>
+        <v>-25.12455082080235</v>
       </c>
       <c r="F22" t="n">
-        <v>8.414053738058684</v>
+        <v>8.631071749963136</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.108249514847157</v>
+        <v>-4.03097874347529</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.239790312081511</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.21935218567929</v>
+        <v>-25.24431920719846</v>
       </c>
       <c r="F23" t="n">
-        <v>8.061163807262799</v>
+        <v>8.259276533863797</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.98668748296173</v>
+        <v>-3.925520244085186</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.856251119294001</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.63028029497255</v>
+        <v>-25.65718497731229</v>
       </c>
       <c r="F24" t="n">
-        <v>8.030187418739276</v>
+        <v>8.235212881240706</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.858409099718498</v>
+        <v>-3.806445749739687</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.547584150208999</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.67564512431913</v>
+        <v>-25.68374925977816</v>
       </c>
       <c r="F25" t="n">
-        <v>8.147730113652292</v>
+        <v>8.367942647450125</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.74229346581523</v>
+        <v>-3.691115654006922</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.318444621069471</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.00198386495199</v>
+        <v>-26.00799323195634</v>
       </c>
       <c r="F26" t="n">
-        <v>8.047521627701721</v>
+        <v>8.264618193423223</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.554589119973403</v>
+        <v>-3.510598982425203</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.17569901803385</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.96319137163196</v>
+        <v>-25.97936036564149</v>
       </c>
       <c r="F27" t="n">
-        <v>7.978184791851939</v>
+        <v>8.175459611071068</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.669395523592499</v>
+        <v>-3.643263287120414</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.121578420629022</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.90998425288318</v>
+        <v>-25.91448800506074</v>
       </c>
       <c r="F28" t="n">
-        <v>7.845769240910722</v>
+        <v>8.052732364232728</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.893404825214432</v>
+        <v>-3.880849306789217</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.147611690753819</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.78876262087164</v>
+        <v>-25.75578311001333</v>
       </c>
       <c r="F29" t="n">
-        <v>7.794604521405256</v>
+        <v>7.992533955766471</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.691875007571743</v>
+        <v>-3.686009655898649</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.250357285048659</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.66023548387442</v>
+        <v>-25.63737632311276</v>
       </c>
       <c r="F30" t="n">
-        <v>7.895336699469497</v>
+        <v>8.092323488026107</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.84386355126134</v>
+        <v>-3.832800555360082</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.415985981038318</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.33245658992896</v>
+        <v>-25.31953448702418</v>
       </c>
       <c r="F31" t="n">
-        <v>7.719847472179</v>
+        <v>7.922830535437122</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.241555342381612</v>
+        <v>-4.238478651213806</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.628691026902582</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90714003981265</v>
+        <v>-24.8845034481993</v>
       </c>
       <c r="F32" t="n">
-        <v>7.860563543121873</v>
+        <v>8.080828446131072</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.148809469050824</v>
+        <v>-4.142551348292479</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.877745558845356</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76273193946841</v>
+        <v>-24.74057976306021</v>
       </c>
       <c r="F33" t="n">
-        <v>7.878002490507051</v>
+        <v>8.108767420395315</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.284511188005315</v>
+        <v>-4.274574130148444</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.144483925197739</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.36640174784368</v>
+        <v>-24.3575906280312</v>
       </c>
       <c r="F34" t="n">
-        <v>7.992245925103953</v>
+        <v>8.232699159095095</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.318341698548335</v>
+        <v>-4.303796150091177</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.417539846203675</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.2101843903362</v>
+        <v>-24.19596614945009</v>
       </c>
       <c r="F35" t="n">
-        <v>7.890413993601008</v>
+        <v>8.124425814594019</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.475567163374623</v>
+        <v>-4.468706796685558</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.68630864295213</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.86098648894169</v>
+        <v>-23.86742790193982</v>
       </c>
       <c r="F36" t="n">
-        <v>8.03424603262021</v>
+        <v>8.274018466863582</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.404947281846353</v>
+        <v>-4.383043859192145</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.939529469973628</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.27706978220071</v>
+        <v>-23.27117824592193</v>
       </c>
       <c r="F37" t="n">
-        <v>7.996854415704241</v>
+        <v>8.231285190388189</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.519544208619982</v>
+        <v>-4.497666970571457</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.176200106823061</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.77647249074446</v>
+        <v>-22.78372562651878</v>
       </c>
       <c r="F38" t="n">
-        <v>7.982164851915824</v>
+        <v>8.226781438210635</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.484325913975738</v>
+        <v>-4.483448729685342</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.394560749562057</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.59138660547098</v>
+        <v>-22.60738539954357</v>
       </c>
       <c r="F39" t="n">
-        <v>8.147127867721572</v>
+        <v>8.385931471554656</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.711097691497275</v>
+        <v>-4.730369561280297</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.596170295372761</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.88846086589871</v>
+        <v>-21.91015481170745</v>
       </c>
       <c r="F40" t="n">
-        <v>8.417693398248684</v>
+        <v>8.670793796784931</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.671139983224327</v>
+        <v>-4.678249103667385</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.790180993722922</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.21364430052763</v>
+        <v>-21.22418360431521</v>
       </c>
       <c r="F41" t="n">
-        <v>8.403239495911418</v>
+        <v>8.652674049651983</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.699838311053391</v>
+        <v>-4.713362659888894</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.978769083735036</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.50880708474046</v>
+        <v>-20.52466186348179</v>
       </c>
       <c r="F42" t="n">
-        <v>8.403763188025087</v>
+        <v>8.642435868829754</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.040486938692261</v>
+        <v>-5.046365382668196</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.168194394482225</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.67213037933712</v>
+        <v>-19.66574133555035</v>
       </c>
       <c r="F43" t="n">
-        <v>8.518582683947024</v>
+        <v>8.759690533080251</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.194622620047903</v>
+        <v>-5.207400707621427</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.36550732532894</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.98204818885257</v>
+        <v>-18.9975887523257</v>
       </c>
       <c r="F44" t="n">
-        <v>8.291483598854445</v>
+        <v>8.510465456185154</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.991587187578415</v>
+        <v>-4.989701895969206</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.566255798290646</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.51803079153612</v>
+        <v>-18.51127516326979</v>
       </c>
       <c r="F45" t="n">
-        <v>8.34120816504732</v>
+        <v>8.564196267047599</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.186911253674126</v>
+        <v>-5.156314541933012</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.774722194314218</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.84180025745813</v>
+        <v>-17.8508601310246</v>
       </c>
       <c r="F46" t="n">
-        <v>8.422589919511489</v>
+        <v>8.621488184282992</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.325244525499803</v>
+        <v>-5.284907140444445</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.991128004174607</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.68855485269572</v>
+        <v>-17.71683422683385</v>
       </c>
       <c r="F47" t="n">
-        <v>8.281402525666316</v>
+        <v>8.490460417442996</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.618747770605618</v>
+        <v>-5.589722135205512</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.210659760227052</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.04839361294669</v>
+        <v>-17.05814737856377</v>
       </c>
       <c r="F48" t="n">
-        <v>8.225760238588979</v>
+        <v>8.423637303738827</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.712122074472809</v>
+        <v>-5.687076499136587</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.437643889056973</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.18270436444607</v>
+        <v>-16.18269127214323</v>
       </c>
       <c r="F49" t="n">
-        <v>8.157104202486968</v>
+        <v>8.357678282022212</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.932805931172943</v>
+        <v>-5.888449209145175</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.667851652767945</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.62649097051818</v>
+        <v>-15.62925344641779</v>
       </c>
       <c r="F50" t="n">
-        <v>7.90552251108036</v>
+        <v>8.100597823422078</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.161672477149157</v>
+        <v>-6.127763412789086</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.896799179249254</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.90954337460242</v>
+        <v>-14.90636194501188</v>
       </c>
       <c r="F51" t="n">
-        <v>7.734144266882166</v>
+        <v>7.915498845845755</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.107103758904842</v>
+        <v>-6.0718854642606</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.128120668324716</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.22400421320396</v>
+        <v>-14.22372927484428</v>
       </c>
       <c r="F52" t="n">
-        <v>7.603430715310372</v>
+        <v>7.776851358751876</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.279817417992893</v>
+        <v>-6.233130266059297</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.352798021177156</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.741002976767</v>
+        <v>-13.73525545581949</v>
       </c>
       <c r="F53" t="n">
-        <v>7.65278869702368</v>
+        <v>7.827989893651658</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.313412267084762</v>
+        <v>-6.2648529158448</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.571786415637253</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.29388774241922</v>
+        <v>-13.30548752273699</v>
       </c>
       <c r="F54" t="n">
-        <v>7.437263207643185</v>
+        <v>7.607463144585624</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.538495137539717</v>
+        <v>-6.486283033806913</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.7888825687787</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.69854145529741</v>
+        <v>-12.7178656942918</v>
       </c>
       <c r="F55" t="n">
-        <v>7.397567345427071</v>
+        <v>7.556795932588144</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.865580139434559</v>
+        <v>-6.824823800688265</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.996640580880071</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.41205568451476</v>
+        <v>-12.42521344887069</v>
       </c>
       <c r="F56" t="n">
-        <v>7.441740775215055</v>
+        <v>7.615946956827062</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.819469048826</v>
+        <v>-6.761286854997369</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.202119972076204</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95687559161647</v>
+        <v>-11.96551651149201</v>
       </c>
       <c r="F57" t="n">
-        <v>7.087201214261113</v>
+        <v>7.247477185649524</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.063169173921889</v>
+        <v>-6.993518122803906</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.407734988088443</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53103534938649</v>
+        <v>-11.52929407310854</v>
       </c>
       <c r="F58" t="n">
-        <v>7.242240264512834</v>
+        <v>7.406155896091244</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.814824464671066</v>
+        <v>-7.776280725105024</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.610192271050791</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.50428777468084</v>
+        <v>-11.52706838162544</v>
       </c>
       <c r="F59" t="n">
-        <v>7.094140134767228</v>
+        <v>7.261381211267437</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.821200416154986</v>
+        <v>-7.772169742012722</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.819567430911535</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.27467496744265</v>
+        <v>-11.31187019981599</v>
       </c>
       <c r="F60" t="n">
-        <v>6.947349235305795</v>
+        <v>7.104954376914494</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.061810757780227</v>
+        <v>-8.012164745404403</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.033275081553979</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.32661213281577</v>
+        <v>-11.35863590556664</v>
       </c>
       <c r="F61" t="n">
-        <v>6.776049544924652</v>
+        <v>6.927606042620472</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.528040754276935</v>
+        <v>-8.478342372689744</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.250699809632104</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.40733927213786</v>
+        <v>-11.46886000319113</v>
       </c>
       <c r="F62" t="n">
-        <v>6.803595750103644</v>
+        <v>6.978875500548672</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.759630499244228</v>
+        <v>-8.71611168459833</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.480945233685503</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.05416131067945</v>
+        <v>-11.09220754273751</v>
       </c>
       <c r="F63" t="n">
-        <v>7.125535476981687</v>
+        <v>7.314143191719594</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.803882482849261</v>
+        <v>-8.769030772684587</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.712946595190305</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80217375788475</v>
+        <v>-10.81321056918033</v>
       </c>
       <c r="F64" t="n">
-        <v>6.967982704584356</v>
+        <v>7.163686447462477</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.040290195262308</v>
+        <v>-8.998394826168786</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.949064922203132</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.82537331852029</v>
+        <v>-10.83917260571547</v>
       </c>
       <c r="F65" t="n">
-        <v>6.941379145209969</v>
+        <v>7.140591625249672</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.105935001710723</v>
+        <v>-9.063515940503532</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.190045575345673</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.54154528521451</v>
+        <v>-10.54870677486894</v>
       </c>
       <c r="F66" t="n">
-        <v>6.77057696233681</v>
+        <v>6.953005110133422</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.494449088538945</v>
+        <v>-9.466536298880385</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.421735676235734</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77513815251659</v>
+        <v>-10.78045362747033</v>
       </c>
       <c r="F67" t="n">
-        <v>6.52740052935459</v>
+        <v>6.716767597657316</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.546163684763762</v>
+        <v>-9.514074450498692</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.646482729727548</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.92703505008629</v>
+        <v>-10.95172713324579</v>
       </c>
       <c r="F68" t="n">
-        <v>6.497759555720923</v>
+        <v>6.683198933171131</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.369208119554994</v>
+        <v>-9.342224883398195</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.858377613773831</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.73165861477922</v>
+        <v>-10.75157200740148</v>
       </c>
       <c r="F69" t="n">
-        <v>6.489799435593153</v>
+        <v>6.662539279286887</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.375531701827548</v>
+        <v>-9.331593933490714</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.04577901587508</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.98921039628165</v>
+        <v>-11.01369300259568</v>
       </c>
       <c r="F70" t="n">
-        <v>6.283202896750716</v>
+        <v>6.475136056410419</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.488505183048801</v>
+        <v>-9.467714606136139</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.21259127001658</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.94861116516946</v>
+        <v>-10.97407569419662</v>
       </c>
       <c r="F71" t="n">
-        <v>5.949453912709434</v>
+        <v>6.110698714508133</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.458248871181572</v>
+        <v>-9.42940652802125</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.34757065900292</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.98618607432521</v>
+        <v>-11.00455457521215</v>
       </c>
       <c r="F72" t="n">
-        <v>6.186398409538993</v>
+        <v>6.365108343328554</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.737494598492747</v>
+        <v>-9.7180263441671</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.44391758169424</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.42181935908081</v>
+        <v>-11.45054387151555</v>
       </c>
       <c r="F73" t="n">
-        <v>6.304543350382729</v>
+        <v>6.496974017550419</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.468055006010024</v>
+        <v>-9.431592942595818</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.50785302769493</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.55161644945368</v>
+        <v>-11.58320817621076</v>
       </c>
       <c r="F74" t="n">
-        <v>6.264166688418846</v>
+        <v>6.439236962018407</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.543676147223835</v>
+        <v>-9.513773327533332</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.5279329642997</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.07923625397524</v>
+        <v>-12.11565904048092</v>
       </c>
       <c r="F75" t="n">
-        <v>6.220883535224099</v>
+        <v>6.410643372612078</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.712907253755986</v>
+        <v>-9.696620429020879</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.50726856640287</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98180333622711</v>
+        <v>-11.99479090064611</v>
       </c>
       <c r="F76" t="n">
-        <v>6.110908191353601</v>
+        <v>6.301008428615464</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.758560113765085</v>
+        <v>-9.758363729222459</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.45002027697694</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.67633690967784</v>
+        <v>-12.70761442116672</v>
       </c>
       <c r="F77" t="n">
-        <v>6.074511589453603</v>
+        <v>6.254818784189854</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.512542651066211</v>
+        <v>-9.504242131064556</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.34738733020627</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37303071309745</v>
+        <v>-13.40260622521691</v>
       </c>
       <c r="F78" t="n">
-        <v>6.134526705680075</v>
+        <v>6.311456086283161</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.896785463814149</v>
+        <v>-8.865507952325267</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.20561014728809</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63444472393819</v>
+        <v>-13.64717044230035</v>
       </c>
       <c r="F79" t="n">
-        <v>6.330256633163879</v>
+        <v>6.502263307898477</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.112258583983277</v>
+        <v>-9.099231742655761</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.02339197634226</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.22891382676961</v>
+        <v>-14.24576362052691</v>
       </c>
       <c r="F80" t="n">
-        <v>6.334943677581217</v>
+        <v>6.494355556982073</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.530030784308877</v>
+        <v>-8.496619227456792</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.793399930129503</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.82147145338613</v>
+        <v>-14.83317597212663</v>
       </c>
       <c r="F81" t="n">
-        <v>6.4340262254874</v>
+        <v>6.60605908482768</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.38919688264043</v>
+        <v>-8.350770973799964</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.524635405004027</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.66817686276624</v>
+        <v>-15.68028724289484</v>
       </c>
       <c r="F82" t="n">
-        <v>6.447170897540493</v>
+        <v>6.637061657956888</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.282664814417306</v>
+        <v>-8.24159426040281</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.213101118454258</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.68904917684983</v>
+        <v>-16.69283285237109</v>
       </c>
       <c r="F83" t="n">
-        <v>6.618601510950054</v>
+        <v>6.804852611176449</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.145824065115583</v>
+        <v>-8.115135707254579</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.857623202475018</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.61077348151303</v>
+        <v>-17.58708950567235</v>
       </c>
       <c r="F84" t="n">
-        <v>6.567122576176387</v>
+        <v>6.747953463026308</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.790826273562182</v>
+        <v>-7.771292557722327</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.471836854441959</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.46075196660357</v>
+        <v>-18.45010792439324</v>
       </c>
       <c r="F85" t="n">
-        <v>6.775735329656451</v>
+        <v>6.946197112655724</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.564146142160537</v>
+        <v>-7.53769969042025</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.054223383757629</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.73566732502801</v>
+        <v>-19.73532692515413</v>
       </c>
       <c r="F86" t="n">
-        <v>6.648425776823506</v>
+        <v>6.810220455341557</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.591194839831543</v>
+        <v>-7.580144936233125</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.615867368591646</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.78717562776124</v>
+        <v>-20.77693744693901</v>
       </c>
       <c r="F87" t="n">
-        <v>6.729807531287675</v>
+        <v>6.903568574603064</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.061506451460989</v>
+        <v>-7.030778816691458</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.171733801873924</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.12969963806036</v>
+        <v>-22.09531925079798</v>
       </c>
       <c r="F88" t="n">
-        <v>7.031977880874713</v>
+        <v>7.227341223878949</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.124716089580843</v>
+        <v>-7.095624992666528</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.726382222841327</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.77612218192162</v>
+        <v>-23.76051615693428</v>
       </c>
       <c r="F89" t="n">
-        <v>6.873901416363712</v>
+        <v>7.050987904600899</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.801323117087367</v>
+        <v>-6.774313696324886</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.297413445390672</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.02913411769185</v>
+        <v>-24.98717328708412</v>
       </c>
       <c r="F90" t="n">
-        <v>7.163267493771542</v>
+        <v>7.365962526367145</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.19970880025825</v>
+        <v>-7.180908253377531</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.894811806275627</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.76530439753315</v>
+        <v>-26.72771639607455</v>
       </c>
       <c r="F91" t="n">
-        <v>7.268058285716718</v>
+        <v>7.453366740138509</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.737053002437334</v>
+        <v>-6.725636514359349</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.519791900631697</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75278143042137</v>
+        <v>-28.71686924372652</v>
       </c>
       <c r="F92" t="n">
-        <v>6.986887989887808</v>
+        <v>7.154548020078953</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.990637816178726</v>
+        <v>-6.980229435419554</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.184082545291179</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.61729555502011</v>
+        <v>-30.56979668031033</v>
       </c>
       <c r="F93" t="n">
-        <v>7.018964131850037</v>
+        <v>7.196967081286145</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.272734482155519</v>
+        <v>-6.239912078931312</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.882758415886078</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.60263854254513</v>
+        <v>-32.54543827142963</v>
       </c>
       <c r="F94" t="n">
-        <v>6.977828116321334</v>
+        <v>7.151746267270823</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.621303953013634</v>
+        <v>-6.613068894526188</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.609738045176403</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.93621060105438</v>
+        <v>-34.8976537691855</v>
       </c>
       <c r="F95" t="n">
-        <v>6.939912807291695</v>
+        <v>7.128625260452335</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.003805489483624</v>
+        <v>-5.977476868468913</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.361683375196264</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.36497679352583</v>
+        <v>-37.32850163780878</v>
       </c>
       <c r="F96" t="n">
-        <v>6.700873542007461</v>
+        <v>6.875760523367237</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.94021617458136</v>
+        <v>-5.905403741325211</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.125288437929895</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.34699433612906</v>
+        <v>-39.30143312223985</v>
       </c>
       <c r="F97" t="n">
-        <v>6.632531721173651</v>
+        <v>6.821898789476377</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.531958895067817</v>
+        <v>-5.488112772850876</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.88594619376838</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.76354541004917</v>
+        <v>-41.71321859792558</v>
       </c>
       <c r="F98" t="n">
-        <v>6.557722302736028</v>
+        <v>6.735201560058466</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.719126456493132</v>
+        <v>-5.667922460079142</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.642813130107347</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.1197933370803</v>
+        <v>-44.10916238717282</v>
       </c>
       <c r="F99" t="n">
-        <v>6.388046057907258</v>
+        <v>6.562330793336315</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.460461829249151</v>
+        <v>-5.40849847927034</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.370482545660339</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.24363979636794</v>
+        <v>-46.22765409459819</v>
       </c>
       <c r="F100" t="n">
-        <v>6.122534156277053</v>
+        <v>6.29522163075942</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.524024959545731</v>
+        <v>-5.464978673729545</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.087275289060297</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.67613729514927</v>
+        <v>-48.64292212283981</v>
       </c>
       <c r="F101" t="n">
-        <v>6.092736075009284</v>
+        <v>6.274666715297911</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.541529368445118</v>
+        <v>-5.475360869883034</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.75852699815631</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.13900893652342</v>
+        <v>-51.13629882983518</v>
       </c>
       <c r="F102" t="n">
-        <v>5.376508555749819</v>
+        <v>5.532673544045927</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.231137052673477</v>
+        <v>-5.162533385782832</v>
       </c>
     </row>
   </sheetData>
